--- a/biology/Botanique/Antirrhineae/Antirrhineae.xlsx
+++ b/biology/Botanique/Antirrhineae/Antirrhineae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La tribu des Antirrhineae faisait partie de la famille des Scrophulariaceae dans la classification classique de Cronquist (1981)[1], actuellement elle est reclassée dans la famille des Plantaginaceae selon la classification APG III.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La tribu des Antirrhineae faisait partie de la famille des Scrophulariaceae dans la classification classique de Cronquist (1981), actuellement elle est reclassée dans la famille des Plantaginaceae selon la classification APG III.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (6 août 2010)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (6 août 2010) :
 genre Acanthorrhinum
 genre Albraunia
 genre Anarrhinum
